--- a/resources/experiment 1/predictions/multiple/RandomForestRegressor/incidence/Nefropatías (INC).xlsx
+++ b/resources/experiment 1/predictions/multiple/RandomForestRegressor/incidence/Nefropatías (INC).xlsx
@@ -482,2061 +482,2061 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78.24163435705951</v>
+        <v>77.4279004975123</v>
       </c>
       <c r="B2" t="n">
-        <v>65.95106464543082</v>
+        <v>64.488</v>
       </c>
       <c r="C2" t="n">
-        <v>87.00737946295932</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>66.71901911869216</v>
+        <v>66.67629850746252</v>
       </c>
       <c r="E2" t="n">
-        <v>54.00210613785018</v>
+        <v>54.23999999999995</v>
       </c>
       <c r="F2" t="n">
-        <v>78.00746019166017</v>
+        <v>78.11199999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>63.77132377398708</v>
+        <v>63.63974129353218</v>
       </c>
       <c r="H2" t="n">
-        <v>49.03646565656568</v>
+        <v>49.32</v>
       </c>
       <c r="I2" t="n">
-        <v>76.34527037037039</v>
+        <v>76.34000000000003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26.25828855721389</v>
+        <v>26.28445771144274</v>
       </c>
       <c r="B3" t="n">
-        <v>15.56672554112555</v>
+        <v>15.064</v>
       </c>
       <c r="C3" t="n">
-        <v>40.50133333333331</v>
+        <v>39.79199999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1.36759303482587</v>
+        <v>1.347164179104477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3544087644662162</v>
+        <v>0.2279999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>3.322333333333326</v>
+        <v>2.952</v>
       </c>
       <c r="G3" t="n">
-        <v>6.672794361525696</v>
+        <v>6.757233830845767</v>
       </c>
       <c r="H3" t="n">
-        <v>3.21502380952381</v>
+        <v>3.284</v>
       </c>
       <c r="I3" t="n">
-        <v>10.94035555555554</v>
+        <v>11.108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39.77255721393028</v>
+        <v>40.06702487562182</v>
       </c>
       <c r="B4" t="n">
-        <v>24.98088888888885</v>
+        <v>25.17600000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>56.99466666666671</v>
+        <v>56.268</v>
       </c>
       <c r="D4" t="n">
-        <v>6.196502487562181</v>
+        <v>6.300119402985072</v>
       </c>
       <c r="E4" t="n">
-        <v>3.106814879537728</v>
+        <v>2.591999999999998</v>
       </c>
       <c r="F4" t="n">
-        <v>11.15260000000001</v>
+        <v>11.276</v>
       </c>
       <c r="G4" t="n">
-        <v>12.59272968490878</v>
+        <v>12.68169154228855</v>
       </c>
       <c r="H4" t="n">
-        <v>6.917199999999998</v>
+        <v>6.936000000000003</v>
       </c>
       <c r="I4" t="n">
-        <v>19.36711111111113</v>
+        <v>19.45999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30.09886567164172</v>
+        <v>30.06702487562182</v>
       </c>
       <c r="B5" t="n">
-        <v>18.40745396825396</v>
+        <v>17.25199999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>46.55899999999993</v>
+        <v>46.02800000000002</v>
       </c>
       <c r="D5" t="n">
-        <v>1.785457758824923</v>
+        <v>1.777412935323383</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3812503849315209</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>3.939499470899471</v>
+        <v>3.94</v>
       </c>
       <c r="G5" t="n">
-        <v>9.046917412935322</v>
+        <v>9.031900497512435</v>
       </c>
       <c r="H5" t="n">
-        <v>4.920575901875901</v>
+        <v>4.948</v>
       </c>
       <c r="I5" t="n">
-        <v>14.51415873015872</v>
+        <v>14.472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61.78379104477605</v>
+        <v>61.87400995024868</v>
       </c>
       <c r="B6" t="n">
-        <v>44.91037330447334</v>
+        <v>44.96799999999998</v>
       </c>
       <c r="C6" t="n">
-        <v>76.11676022126015</v>
+        <v>75.94800000000004</v>
       </c>
       <c r="D6" t="n">
-        <v>25.89889552238799</v>
+        <v>25.92019900497505</v>
       </c>
       <c r="E6" t="n">
-        <v>13.65963515886132</v>
+        <v>13.89199999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>39.08237248677247</v>
+        <v>38.82000000000002</v>
       </c>
       <c r="G6" t="n">
-        <v>33.14271044776101</v>
+        <v>33.29231840796005</v>
       </c>
       <c r="H6" t="n">
-        <v>21.31698333333335</v>
+        <v>21.564</v>
       </c>
       <c r="I6" t="n">
-        <v>46.99012380952373</v>
+        <v>46.712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74.51302184108846</v>
+        <v>74.80997014925362</v>
       </c>
       <c r="B7" t="n">
-        <v>62.19014959138258</v>
+        <v>62.31999999999998</v>
       </c>
       <c r="C7" t="n">
-        <v>85.98863236233629</v>
+        <v>85.51999999999994</v>
       </c>
       <c r="D7" t="n">
-        <v>63.43594593698169</v>
+        <v>63.41333333333326</v>
       </c>
       <c r="E7" t="n">
-        <v>48.77547484508955</v>
+        <v>49.83600000000002</v>
       </c>
       <c r="F7" t="n">
-        <v>76.89269004329003</v>
+        <v>75.93199999999996</v>
       </c>
       <c r="G7" t="n">
-        <v>58.36073963515748</v>
+        <v>58.33629850746264</v>
       </c>
       <c r="H7" t="n">
-        <v>43.744</v>
+        <v>43.912</v>
       </c>
       <c r="I7" t="n">
-        <v>73.04983809523809</v>
+        <v>72.67600000000006</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69.97882397536118</v>
+        <v>69.93942288557201</v>
       </c>
       <c r="B8" t="n">
-        <v>53.79500467310467</v>
+        <v>54.02799999999998</v>
       </c>
       <c r="C8" t="n">
-        <v>83.19330476190486</v>
+        <v>83.21199999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>88.94745843402025</v>
+        <v>88.96007960198988</v>
       </c>
       <c r="E8" t="n">
-        <v>79.62130430945354</v>
+        <v>79.20400000000004</v>
       </c>
       <c r="F8" t="n">
-        <v>94.29373872053871</v>
+        <v>94.33199999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>78.35794247731243</v>
+        <v>78.6236815920397</v>
       </c>
       <c r="H8" t="n">
-        <v>63.58005476190479</v>
+        <v>64.18000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>88.93135394235397</v>
+        <v>89.26400000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59.31505472636812</v>
+        <v>59.27243781094523</v>
       </c>
       <c r="B9" t="n">
-        <v>42.91944444444442</v>
+        <v>42.75200000000002</v>
       </c>
       <c r="C9" t="n">
-        <v>75.06511269841259</v>
+        <v>74.95200000000006</v>
       </c>
       <c r="D9" t="n">
-        <v>23.47119071310101</v>
+        <v>23.46085572139289</v>
       </c>
       <c r="E9" t="n">
-        <v>13.19619569462185</v>
+        <v>13.39600000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>36.32368359788368</v>
+        <v>36.05599999999998</v>
       </c>
       <c r="G9" t="n">
-        <v>29.89475124378102</v>
+        <v>29.78254726368149</v>
       </c>
       <c r="H9" t="n">
-        <v>18.89593333333335</v>
+        <v>18.95199999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>41.35295238095244</v>
+        <v>41.18399999999998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69.14642998692837</v>
+        <v>69.25681592039787</v>
       </c>
       <c r="B10" t="n">
-        <v>54.39639716146979</v>
+        <v>54.81999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>82.2659505055759</v>
+        <v>81.892</v>
       </c>
       <c r="D10" t="n">
-        <v>88.83211108670199</v>
+        <v>88.97008955223872</v>
       </c>
       <c r="E10" t="n">
-        <v>79.62626407177154</v>
+        <v>79.91200000000005</v>
       </c>
       <c r="F10" t="n">
-        <v>94.49474006066862</v>
+        <v>94.22400000000003</v>
       </c>
       <c r="G10" t="n">
-        <v>79.29499944643517</v>
+        <v>79.26021890547256</v>
       </c>
       <c r="H10" t="n">
-        <v>63.55897366419465</v>
+        <v>64.99199999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>89.63557975525596</v>
+        <v>89.47999999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78.23896126608375</v>
+        <v>78.84628855721381</v>
       </c>
       <c r="B11" t="n">
-        <v>66.14111887503316</v>
+        <v>67.17199999999997</v>
       </c>
       <c r="C11" t="n">
-        <v>87.3063105470367</v>
+        <v>87.34799999999994</v>
       </c>
       <c r="D11" t="n">
-        <v>77.49501096896462</v>
+        <v>77.48505472636812</v>
       </c>
       <c r="E11" t="n">
-        <v>66.09011456921702</v>
+        <v>66.19999999999997</v>
       </c>
       <c r="F11" t="n">
-        <v>86.09289028690196</v>
+        <v>86.512</v>
       </c>
       <c r="G11" t="n">
-        <v>72.23684593698169</v>
+        <v>72.26961194029843</v>
       </c>
       <c r="H11" t="n">
-        <v>58.06820952380954</v>
+        <v>57.96800000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>83.01328164983164</v>
+        <v>82.80399999999995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>74.01274690163335</v>
+        <v>74.06740298507445</v>
       </c>
       <c r="B12" t="n">
-        <v>60.37311601731601</v>
+        <v>61.24400000000005</v>
       </c>
       <c r="C12" t="n">
-        <v>84.20095585047908</v>
+        <v>83.74799999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>51.60174129353221</v>
+        <v>51.43822885572126</v>
       </c>
       <c r="E12" t="n">
-        <v>36.52502910052904</v>
+        <v>37.34799999999998</v>
       </c>
       <c r="F12" t="n">
-        <v>64.21220370370371</v>
+        <v>64.31600000000002</v>
       </c>
       <c r="G12" t="n">
-        <v>55.10520729684897</v>
+        <v>54.77663681592036</v>
       </c>
       <c r="H12" t="n">
-        <v>40.43002380952382</v>
+        <v>41.43599999999998</v>
       </c>
       <c r="I12" t="n">
-        <v>68.37126666666664</v>
+        <v>68.49199999999998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>74.16272127749463</v>
+        <v>74.07976119402973</v>
       </c>
       <c r="B13" t="n">
-        <v>60.65745867236692</v>
+        <v>60.57999999999997</v>
       </c>
       <c r="C13" t="n">
-        <v>85.87825418089932</v>
+        <v>85.94399999999997</v>
       </c>
       <c r="D13" t="n">
-        <v>87.04088929211228</v>
+        <v>86.99074626865657</v>
       </c>
       <c r="E13" t="n">
-        <v>77.81721287782236</v>
+        <v>77.75999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>92.92862724155266</v>
+        <v>92.88399999999997</v>
       </c>
       <c r="G13" t="n">
-        <v>79.30388031395027</v>
+        <v>79.37460696517407</v>
       </c>
       <c r="H13" t="n">
-        <v>64.98196790134958</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>89.17344411334508</v>
+        <v>89.20400000000005</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>77.75259581309058</v>
+        <v>77.36137313432825</v>
       </c>
       <c r="B14" t="n">
-        <v>65.72352154829865</v>
+        <v>65.83599999999997</v>
       </c>
       <c r="C14" t="n">
-        <v>87.28913664004889</v>
+        <v>87.29600000000002</v>
       </c>
       <c r="D14" t="n">
-        <v>83.50902905132448</v>
+        <v>83.44358208955215</v>
       </c>
       <c r="E14" t="n">
-        <v>73.55179567610149</v>
+        <v>73.62400000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>90.18209066296062</v>
+        <v>89.99199999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>76.9648203139168</v>
+        <v>76.87546268656696</v>
       </c>
       <c r="H14" t="n">
-        <v>63.32613576213556</v>
+        <v>63.304</v>
       </c>
       <c r="I14" t="n">
-        <v>87.09736864616859</v>
+        <v>87.00400000000002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33.83200995024865</v>
+        <v>33.93978109452726</v>
       </c>
       <c r="B15" t="n">
-        <v>21.13908412698415</v>
+        <v>20.47999999999998</v>
       </c>
       <c r="C15" t="n">
-        <v>50.4996285714285</v>
+        <v>50.31600000000003</v>
       </c>
       <c r="D15" t="n">
-        <v>2.207551158349659</v>
+        <v>2.19086567164178</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.7320000000000004</v>
       </c>
       <c r="F15" t="n">
-        <v>4.23705238095238</v>
+        <v>4.235999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>11.72887578772802</v>
+        <v>11.66648756218906</v>
       </c>
       <c r="H15" t="n">
-        <v>6.746135714285706</v>
+        <v>6.504000000000002</v>
       </c>
       <c r="I15" t="n">
-        <v>19.19482063492064</v>
+        <v>18.92000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>61.67732669983408</v>
+        <v>61.84471641791037</v>
       </c>
       <c r="B16" t="n">
-        <v>44.9988780663781</v>
+        <v>44.75199999999998</v>
       </c>
       <c r="C16" t="n">
-        <v>76.06029196729189</v>
+        <v>76.04800000000002</v>
       </c>
       <c r="D16" t="n">
-        <v>25.89853864013261</v>
+        <v>25.96951243781087</v>
       </c>
       <c r="E16" t="n">
-        <v>13.65963515886132</v>
+        <v>14.04799999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>38.5164222222222</v>
+        <v>38.60800000000002</v>
       </c>
       <c r="G16" t="n">
-        <v>33.20545522388042</v>
+        <v>33.3373333333332</v>
       </c>
       <c r="H16" t="n">
-        <v>21.55065000000002</v>
+        <v>21.788</v>
       </c>
       <c r="I16" t="n">
-        <v>46.74790476190467</v>
+        <v>46.48000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73.80091482392663</v>
+        <v>74.04640796019883</v>
       </c>
       <c r="B17" t="n">
-        <v>57.83771279461277</v>
+        <v>59.21200000000005</v>
       </c>
       <c r="C17" t="n">
-        <v>84.13983110485434</v>
+        <v>84.35599999999995</v>
       </c>
       <c r="D17" t="n">
-        <v>51.70476616915409</v>
+        <v>51.72025870646752</v>
       </c>
       <c r="E17" t="n">
-        <v>36.54758306878306</v>
+        <v>36.99999999999997</v>
       </c>
       <c r="F17" t="n">
-        <v>65.70723015873008</v>
+        <v>65.61600000000004</v>
       </c>
       <c r="G17" t="n">
-        <v>54.73562520729671</v>
+        <v>54.93106467661678</v>
       </c>
       <c r="H17" t="n">
-        <v>40.66062142857141</v>
+        <v>40.61999999999998</v>
       </c>
       <c r="I17" t="n">
-        <v>67.91762222222209</v>
+        <v>68.67600000000002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>39.77255721393028</v>
+        <v>40.06702487562182</v>
       </c>
       <c r="B18" t="n">
-        <v>25.2824444444444</v>
+        <v>25.17600000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>56.8773333333334</v>
+        <v>56.268</v>
       </c>
       <c r="D18" t="n">
-        <v>6.196502487562181</v>
+        <v>6.300119402985072</v>
       </c>
       <c r="E18" t="n">
-        <v>3.106814879537728</v>
+        <v>2.591999999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>11.13793333333335</v>
+        <v>11.276</v>
       </c>
       <c r="G18" t="n">
-        <v>12.57748590381425</v>
+        <v>12.68169154228855</v>
       </c>
       <c r="H18" t="n">
-        <v>6.917199999999998</v>
+        <v>6.936000000000003</v>
       </c>
       <c r="I18" t="n">
-        <v>19.35911111111113</v>
+        <v>19.45999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>78.52719660201672</v>
+        <v>78.95777114427857</v>
       </c>
       <c r="B19" t="n">
-        <v>66.24385078714634</v>
+        <v>67.38799999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>87.6860765782817</v>
+        <v>87.97199999999997</v>
       </c>
       <c r="D19" t="n">
-        <v>78.12102104556577</v>
+        <v>77.83964179104468</v>
       </c>
       <c r="E19" t="n">
-        <v>67.5118168995206</v>
+        <v>67.33200000000002</v>
       </c>
       <c r="F19" t="n">
-        <v>86.07284082914558</v>
+        <v>85.684</v>
       </c>
       <c r="G19" t="n">
-        <v>74.11464558890522</v>
+        <v>73.69090547263677</v>
       </c>
       <c r="H19" t="n">
-        <v>60.56251424686425</v>
+        <v>60.53600000000002</v>
       </c>
       <c r="I19" t="n">
-        <v>84.30657636938219</v>
+        <v>83.94400000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>64.88561061359859</v>
+        <v>64.8015522388059</v>
       </c>
       <c r="B20" t="n">
-        <v>47.67109523809527</v>
+        <v>48.19599999999998</v>
       </c>
       <c r="C20" t="n">
-        <v>77.65566974506967</v>
+        <v>77.36800000000007</v>
       </c>
       <c r="D20" t="n">
-        <v>28.87051409618569</v>
+        <v>28.67735323383082</v>
       </c>
       <c r="E20" t="n">
-        <v>16.42190312051783</v>
+        <v>16.99999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>42.77425079365081</v>
+        <v>42.16400000000002</v>
       </c>
       <c r="G20" t="n">
-        <v>38.08064795072244</v>
+        <v>37.98861691542277</v>
       </c>
       <c r="H20" t="n">
-        <v>25.32099783549784</v>
+        <v>25.58799999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>51.34912380952377</v>
+        <v>51.26000000000003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>48.77478606965169</v>
+        <v>48.84222885572133</v>
       </c>
       <c r="B21" t="n">
-        <v>32.14215728715729</v>
+        <v>31.04799999999998</v>
       </c>
       <c r="C21" t="n">
-        <v>64.8200370370371</v>
+        <v>64.87999999999997</v>
       </c>
       <c r="D21" t="n">
-        <v>9.381087420042634</v>
+        <v>9.422268656716405</v>
       </c>
       <c r="E21" t="n">
-        <v>4.623666750295911</v>
+        <v>4.559999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>15.88778398268398</v>
+        <v>16.016</v>
       </c>
       <c r="G21" t="n">
-        <v>20.24810082918725</v>
+        <v>20.30302487562172</v>
       </c>
       <c r="H21" t="n">
-        <v>12.03092640692641</v>
+        <v>11.512</v>
       </c>
       <c r="I21" t="n">
-        <v>29.57686825396824</v>
+        <v>28.86799999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>69.364024796265</v>
+        <v>69.59283582089546</v>
       </c>
       <c r="B22" t="n">
-        <v>54.01621693657486</v>
+        <v>53.69999999999998</v>
       </c>
       <c r="C22" t="n">
-        <v>82.47629582692694</v>
+        <v>82.22400000000003</v>
       </c>
       <c r="D22" t="n">
-        <v>89.14962397296931</v>
+        <v>89.39255721393035</v>
       </c>
       <c r="E22" t="n">
-        <v>79.68004959573916</v>
+        <v>80.09200000000003</v>
       </c>
       <c r="F22" t="n">
-        <v>94.66392153140546</v>
+        <v>94.664</v>
       </c>
       <c r="G22" t="n">
-        <v>80.00736753244783</v>
+        <v>80.26177114427844</v>
       </c>
       <c r="H22" t="n">
-        <v>64.83803538967778</v>
+        <v>65.02799999999998</v>
       </c>
       <c r="I22" t="n">
-        <v>90.00342190406579</v>
+        <v>90.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>36.53791044776101</v>
+        <v>36.40037810945253</v>
       </c>
       <c r="B23" t="n">
-        <v>21.06455555555552</v>
+        <v>21.92800000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>51.71222222222222</v>
+        <v>51.944</v>
       </c>
       <c r="D23" t="n">
-        <v>2.435344555002756</v>
+        <v>2.453791044776113</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6919122162216321</v>
+        <v>0.752</v>
       </c>
       <c r="F23" t="n">
-        <v>4.845623280423278</v>
+        <v>4.868000000000003</v>
       </c>
       <c r="G23" t="n">
-        <v>13.04251194029849</v>
+        <v>13.06125373134328</v>
       </c>
       <c r="H23" t="n">
-        <v>7.154033333333336</v>
+        <v>7.368000000000004</v>
       </c>
       <c r="I23" t="n">
-        <v>19.94651111111111</v>
+        <v>20.17599999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>61.65460033167489</v>
+        <v>61.80620895522381</v>
       </c>
       <c r="B24" t="n">
-        <v>45.03536695526702</v>
+        <v>44.62399999999997</v>
       </c>
       <c r="C24" t="n">
-        <v>76.0526379990379</v>
+        <v>76.08800000000002</v>
       </c>
       <c r="D24" t="n">
-        <v>25.88252868988386</v>
+        <v>25.91673631840789</v>
       </c>
       <c r="E24" t="n">
-        <v>13.69702635655252</v>
+        <v>13.956</v>
       </c>
       <c r="F24" t="n">
-        <v>38.57231111111107</v>
+        <v>38.73200000000002</v>
       </c>
       <c r="G24" t="n">
-        <v>33.18694776119386</v>
+        <v>33.31757213930335</v>
       </c>
       <c r="H24" t="n">
-        <v>21.62323333333335</v>
+        <v>21.62799999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>46.473111111111</v>
+        <v>46.40800000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56.31212338308449</v>
+        <v>56.37797014925363</v>
       </c>
       <c r="B25" t="n">
-        <v>39.67303333333339</v>
+        <v>39.51599999999997</v>
       </c>
       <c r="C25" t="n">
-        <v>72.71977777777788</v>
+        <v>72.29199999999994</v>
       </c>
       <c r="D25" t="n">
-        <v>21.61358231066875</v>
+        <v>21.64409950248742</v>
       </c>
       <c r="E25" t="n">
-        <v>11.96664803857419</v>
+        <v>11.65999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>34.33779999999997</v>
+        <v>34.27200000000002</v>
       </c>
       <c r="G25" t="n">
-        <v>26.5937690357734</v>
+        <v>26.68364179104465</v>
       </c>
       <c r="H25" t="n">
-        <v>15.86924444444444</v>
+        <v>15.82799999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>38.24057777777779</v>
+        <v>38.392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49.26592039800988</v>
+        <v>49.24855721393028</v>
       </c>
       <c r="B26" t="n">
-        <v>32.42669153439157</v>
+        <v>33.05599999999997</v>
       </c>
       <c r="C26" t="n">
-        <v>65.37075079365071</v>
+        <v>65.16000000000004</v>
       </c>
       <c r="D26" t="n">
-        <v>9.417976308931525</v>
+        <v>9.376358208955219</v>
       </c>
       <c r="E26" t="n">
-        <v>4.588497438126598</v>
+        <v>4.119999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>16.17073968253967</v>
+        <v>16.23600000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>20.56415555555548</v>
+        <v>20.25607960199</v>
       </c>
       <c r="H26" t="n">
-        <v>12.11244545454546</v>
+        <v>11.98</v>
       </c>
       <c r="I26" t="n">
-        <v>30.64223968253968</v>
+        <v>31.10399999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>74.17141050337946</v>
+        <v>74.08901492537302</v>
       </c>
       <c r="B27" t="n">
-        <v>62.16702015527426</v>
+        <v>62.27600000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>85.87481415136122</v>
+        <v>85.98399999999994</v>
       </c>
       <c r="D27" t="n">
-        <v>87.28699868862468</v>
+        <v>87.27540298507452</v>
       </c>
       <c r="E27" t="n">
-        <v>77.80691372987793</v>
+        <v>77.81599999999995</v>
       </c>
       <c r="F27" t="n">
-        <v>93.17823207581873</v>
+        <v>93.28</v>
       </c>
       <c r="G27" t="n">
-        <v>79.98303396037178</v>
+        <v>79.91032835820887</v>
       </c>
       <c r="H27" t="n">
-        <v>64.90351317714364</v>
+        <v>64.87200000000006</v>
       </c>
       <c r="I27" t="n">
-        <v>89.62606935952037</v>
+        <v>89.60399999999998</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>75.1948145384516</v>
+        <v>76.10330348258694</v>
       </c>
       <c r="B28" t="n">
-        <v>63.24330191672225</v>
+        <v>62.38399999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>86.18234114910418</v>
+        <v>87.40400000000005</v>
       </c>
       <c r="D28" t="n">
-        <v>64.94254363894802</v>
+        <v>64.83062686567153</v>
       </c>
       <c r="E28" t="n">
-        <v>52.10456678871525</v>
+        <v>50.41999999999997</v>
       </c>
       <c r="F28" t="n">
-        <v>76.69705757575751</v>
+        <v>76.07200000000006</v>
       </c>
       <c r="G28" t="n">
-        <v>61.27600522388052</v>
+        <v>61.21667661691541</v>
       </c>
       <c r="H28" t="n">
-        <v>47.35446565656567</v>
+        <v>46.72400000000004</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18099999999998</v>
+        <v>74.21199999999997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38.08799999999992</v>
+        <v>37.65564179104467</v>
       </c>
       <c r="B29" t="n">
-        <v>24.25866666666668</v>
+        <v>23.204</v>
       </c>
       <c r="C29" t="n">
-        <v>54.20533333333322</v>
+        <v>53.728</v>
       </c>
       <c r="D29" t="n">
-        <v>2.663266666666654</v>
+        <v>2.657273631840785</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.8759999999999997</v>
       </c>
       <c r="F29" t="n">
-        <v>5.021352380952383</v>
+        <v>5.044</v>
       </c>
       <c r="G29" t="n">
-        <v>14.33750779436152</v>
+        <v>14.12487562189053</v>
       </c>
       <c r="H29" t="n">
-        <v>7.895066666666674</v>
+        <v>7.756000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>21.75966666666665</v>
+        <v>21.56400000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>72.80523110278321</v>
+        <v>72.76638805970134</v>
       </c>
       <c r="B30" t="n">
-        <v>56.80794678284676</v>
+        <v>58.03199999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>84.01774554966873</v>
+        <v>84.39200000000002</v>
       </c>
       <c r="D30" t="n">
-        <v>49.62772703150898</v>
+        <v>49.80875621890533</v>
       </c>
       <c r="E30" t="n">
-        <v>36.18035343915343</v>
+        <v>36.184</v>
       </c>
       <c r="F30" t="n">
-        <v>64.29982853072856</v>
+        <v>64.80399999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>52.20868048645651</v>
+        <v>52.50913432835808</v>
       </c>
       <c r="H30" t="n">
-        <v>39.67712142857146</v>
+        <v>39.56000000000003</v>
       </c>
       <c r="I30" t="n">
-        <v>66.25035238095234</v>
+        <v>66.69200000000004</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>77.02239067542966</v>
+        <v>76.7647363184078</v>
       </c>
       <c r="B31" t="n">
-        <v>65.03299879311155</v>
+        <v>64.80800000000004</v>
       </c>
       <c r="C31" t="n">
-        <v>86.83574405552559</v>
+        <v>86.29599999999996</v>
       </c>
       <c r="D31" t="n">
-        <v>83.15967208402424</v>
+        <v>83.16493532338298</v>
       </c>
       <c r="E31" t="n">
-        <v>73.75979138450074</v>
+        <v>74.52000000000004</v>
       </c>
       <c r="F31" t="n">
-        <v>90.57183225231383</v>
+        <v>90.62000000000003</v>
       </c>
       <c r="G31" t="n">
-        <v>75.98120459606719</v>
+        <v>75.91783084577104</v>
       </c>
       <c r="H31" t="n">
-        <v>63.05745367828222</v>
+        <v>62.66799999999996</v>
       </c>
       <c r="I31" t="n">
-        <v>85.80990148000144</v>
+        <v>86.04000000000003</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>73.71467904702311</v>
+        <v>73.50660696517394</v>
       </c>
       <c r="B32" t="n">
-        <v>60.19343918100139</v>
+        <v>60.23199999999997</v>
       </c>
       <c r="C32" t="n">
-        <v>85.34462074937909</v>
+        <v>85.27200000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>86.44814190651795</v>
+        <v>86.39860696517404</v>
       </c>
       <c r="E32" t="n">
-        <v>77.39867750283138</v>
+        <v>77.06400000000004</v>
       </c>
       <c r="F32" t="n">
-        <v>92.69970174136384</v>
+        <v>92.51199999999997</v>
       </c>
       <c r="G32" t="n">
-        <v>77.62546074026358</v>
+        <v>77.61492537313428</v>
       </c>
       <c r="H32" t="n">
-        <v>62.95951552746805</v>
+        <v>63.14399999999998</v>
       </c>
       <c r="I32" t="n">
-        <v>88.0724685647552</v>
+        <v>87.86400000000002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>77.75259581309058</v>
+        <v>77.38288557213919</v>
       </c>
       <c r="B33" t="n">
-        <v>65.74642911132386</v>
+        <v>66.244</v>
       </c>
       <c r="C33" t="n">
-        <v>87.28913664004889</v>
+        <v>87.82799999999993</v>
       </c>
       <c r="D33" t="n">
-        <v>83.55364454528325</v>
+        <v>83.6367562189053</v>
       </c>
       <c r="E33" t="n">
-        <v>74.21632509325705</v>
+        <v>74.70400000000004</v>
       </c>
       <c r="F33" t="n">
-        <v>90.18130825908996</v>
+        <v>90.26800000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>77.02370920280566</v>
+        <v>77.12847761194013</v>
       </c>
       <c r="H33" t="n">
-        <v>63.35688906993886</v>
+        <v>63.34399999999997</v>
       </c>
       <c r="I33" t="n">
-        <v>87.3611956302956</v>
+        <v>87.63600000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>78.57228250067703</v>
+        <v>78.64230845771144</v>
       </c>
       <c r="B34" t="n">
-        <v>68.41372895862078</v>
+        <v>68.34400000000002</v>
       </c>
       <c r="C34" t="n">
-        <v>87.8290445402948</v>
+        <v>87.96399999999994</v>
       </c>
       <c r="D34" t="n">
-        <v>68.88830547263677</v>
+        <v>68.74352238805963</v>
       </c>
       <c r="E34" t="n">
-        <v>55.71953518388158</v>
+        <v>56.364</v>
       </c>
       <c r="F34" t="n">
-        <v>79.31660952380948</v>
+        <v>79.44400000000005</v>
       </c>
       <c r="G34" t="n">
-        <v>68.01912896627961</v>
+        <v>67.84841791044764</v>
       </c>
       <c r="H34" t="n">
-        <v>54.20503333333328</v>
+        <v>54.61599999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>80.44550086580094</v>
+        <v>80.40399999999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>62.91348092868984</v>
+        <v>62.9258109452736</v>
       </c>
       <c r="B35" t="n">
-        <v>46.02975425685432</v>
+        <v>45.512</v>
       </c>
       <c r="C35" t="n">
-        <v>77.02411101491097</v>
+        <v>77.05999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>26.8253499170812</v>
+        <v>26.7733731343283</v>
       </c>
       <c r="E35" t="n">
-        <v>16.07907460088932</v>
+        <v>15.56</v>
       </c>
       <c r="F35" t="n">
-        <v>39.19179999999995</v>
+        <v>39.34800000000002</v>
       </c>
       <c r="G35" t="n">
-        <v>35.03970196635859</v>
+        <v>35.06519402985071</v>
       </c>
       <c r="H35" t="n">
-        <v>23.58407878787882</v>
+        <v>23.12400000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>47.23188571428562</v>
+        <v>47.076</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>74.51302184108846</v>
+        <v>74.63391044776114</v>
       </c>
       <c r="B36" t="n">
-        <v>62.17281625804925</v>
+        <v>61.14400000000003</v>
       </c>
       <c r="C36" t="n">
-        <v>85.9988209663249</v>
+        <v>85.97199999999994</v>
       </c>
       <c r="D36" t="n">
-        <v>63.3761482587064</v>
+        <v>63.2972736318407</v>
       </c>
       <c r="E36" t="n">
-        <v>48.59924627366097</v>
+        <v>48.04800000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>76.77805589225586</v>
+        <v>76.60799999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>58.28987893864006</v>
+        <v>58.19669651741293</v>
       </c>
       <c r="H36" t="n">
-        <v>42.55799999999999</v>
+        <v>42.668</v>
       </c>
       <c r="I36" t="n">
-        <v>73.28208253968252</v>
+        <v>72.74000000000005</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>51.67584079601976</v>
+        <v>51.6879004975123</v>
       </c>
       <c r="B37" t="n">
-        <v>33.15882853072855</v>
+        <v>34.42399999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>66.8004560846561</v>
+        <v>66.46399999999996</v>
       </c>
       <c r="D37" t="n">
-        <v>10.49917180762852</v>
+        <v>10.46766169154229</v>
       </c>
       <c r="E37" t="n">
-        <v>4.697668534545373</v>
+        <v>4.820000000000003</v>
       </c>
       <c r="F37" t="n">
-        <v>17.36505396825395</v>
+        <v>17.408</v>
       </c>
       <c r="G37" t="n">
-        <v>22.93770447761185</v>
+        <v>22.9747462686566</v>
       </c>
       <c r="H37" t="n">
-        <v>13.61450476190477</v>
+        <v>13.936</v>
       </c>
       <c r="I37" t="n">
-        <v>32.48496984126985</v>
+        <v>32.45599999999997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>78.04083114902356</v>
+        <v>77.62334328358203</v>
       </c>
       <c r="B38" t="n">
-        <v>65.99824843309442</v>
+        <v>64.50800000000002</v>
       </c>
       <c r="C38" t="n">
-        <v>87.87678368393965</v>
+        <v>87.41999999999996</v>
       </c>
       <c r="D38" t="n">
-        <v>83.85849718076277</v>
+        <v>83.74069651741291</v>
       </c>
       <c r="E38" t="n">
-        <v>73.47356313641896</v>
+        <v>73.65200000000003</v>
       </c>
       <c r="F38" t="n">
-        <v>90.29332857591912</v>
+        <v>90.22399999999998</v>
       </c>
       <c r="G38" t="n">
-        <v>77.78025765780079</v>
+        <v>77.54242786069639</v>
       </c>
       <c r="H38" t="n">
-        <v>63.62191983956894</v>
+        <v>64.07200000000003</v>
       </c>
       <c r="I38" t="n">
-        <v>87.50883528323526</v>
+        <v>87.22800000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>75.34873565505802</v>
+        <v>75.5907263681592</v>
       </c>
       <c r="B39" t="n">
-        <v>63.59398831168832</v>
+        <v>64.53199999999998</v>
       </c>
       <c r="C39" t="n">
-        <v>86.28521394901408</v>
+        <v>86.42799999999994</v>
       </c>
       <c r="D39" t="n">
-        <v>52.76415920398007</v>
+        <v>52.82624875621887</v>
       </c>
       <c r="E39" t="n">
-        <v>36.64774021164014</v>
+        <v>37.65600000000002</v>
       </c>
       <c r="F39" t="n">
-        <v>65.05594444444446</v>
+        <v>65.78</v>
       </c>
       <c r="G39" t="n">
-        <v>56.85119734660017</v>
+        <v>57.0385472636815</v>
       </c>
       <c r="H39" t="n">
-        <v>42.60049999999997</v>
+        <v>43.28000000000002</v>
       </c>
       <c r="I39" t="n">
-        <v>69.46277777777776</v>
+        <v>69.58399999999997</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.83088225538962</v>
+        <v>44.69363184079593</v>
       </c>
       <c r="B40" t="n">
-        <v>29.56459393569393</v>
+        <v>28.59200000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>63.21242222222216</v>
+        <v>63.08000000000005</v>
       </c>
       <c r="D40" t="n">
-        <v>7.836995024875622</v>
+        <v>7.903900497512439</v>
       </c>
       <c r="E40" t="n">
-        <v>3.248169725140469</v>
+        <v>3.404000000000003</v>
       </c>
       <c r="F40" t="n">
-        <v>14.05369523809525</v>
+        <v>14.504</v>
       </c>
       <c r="G40" t="n">
-        <v>16.33091956882254</v>
+        <v>16.41502487562188</v>
       </c>
       <c r="H40" t="n">
-        <v>10.28950607725607</v>
+        <v>9.555999999999996</v>
       </c>
       <c r="I40" t="n">
-        <v>24.93909999999999</v>
+        <v>25.452</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>74.43729704402116</v>
+        <v>73.12847761194014</v>
       </c>
       <c r="B41" t="n">
-        <v>58.28583112828728</v>
+        <v>57.15600000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>85.5714455631357</v>
+        <v>84.90399999999994</v>
       </c>
       <c r="D41" t="n">
-        <v>61.03954228855712</v>
+        <v>61.07621890547254</v>
       </c>
       <c r="E41" t="n">
-        <v>47.44500240500241</v>
+        <v>47.16400000000002</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20139999999994</v>
+        <v>74.20400000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>54.63335797204446</v>
+        <v>54.65880597014916</v>
       </c>
       <c r="H41" t="n">
-        <v>40.84899999999998</v>
+        <v>40.604</v>
       </c>
       <c r="I41" t="n">
-        <v>68.71933333333338</v>
+        <v>68.61599999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>78.43918589627695</v>
+        <v>79.02101492537314</v>
       </c>
       <c r="B42" t="n">
-        <v>66.22407968527524</v>
+        <v>67.00000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>87.72252393844809</v>
+        <v>88.07199999999995</v>
       </c>
       <c r="D42" t="n">
-        <v>77.732455042249</v>
+        <v>77.92893532338306</v>
       </c>
       <c r="E42" t="n">
-        <v>67.24261783007154</v>
+        <v>67.20400000000004</v>
       </c>
       <c r="F42" t="n">
-        <v>86.24486058882233</v>
+        <v>86.37600000000002</v>
       </c>
       <c r="G42" t="n">
-        <v>73.34916389133252</v>
+        <v>73.66539303482577</v>
       </c>
       <c r="H42" t="n">
-        <v>60.33451605061604</v>
+        <v>60.244</v>
       </c>
       <c r="I42" t="n">
-        <v>84.40515282440869</v>
+        <v>84.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>72.80523110278321</v>
+        <v>72.76638805970134</v>
       </c>
       <c r="B43" t="n">
-        <v>57.13972037592037</v>
+        <v>58.03199999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>83.96841221633541</v>
+        <v>84.39200000000002</v>
       </c>
       <c r="D43" t="n">
-        <v>49.61085140961843</v>
+        <v>49.80875621890533</v>
       </c>
       <c r="E43" t="n">
-        <v>36.01883492063492</v>
+        <v>36.184</v>
       </c>
       <c r="F43" t="n">
-        <v>64.52502222222228</v>
+        <v>64.80399999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>52.20594416804855</v>
+        <v>52.50913432835808</v>
       </c>
       <c r="H43" t="n">
-        <v>39.67712142857146</v>
+        <v>39.56000000000003</v>
       </c>
       <c r="I43" t="n">
-        <v>66.29866349206345</v>
+        <v>66.69200000000004</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>76.8983623379679</v>
+        <v>76.19912437810936</v>
       </c>
       <c r="B44" t="n">
-        <v>63.67812610608232</v>
+        <v>62.48800000000003</v>
       </c>
       <c r="C44" t="n">
-        <v>86.55701632542933</v>
+        <v>86.17199999999997</v>
       </c>
       <c r="D44" t="n">
-        <v>74.07477114427849</v>
+        <v>74.13775124378097</v>
       </c>
       <c r="E44" t="n">
-        <v>63.2490507160252</v>
+        <v>62.92</v>
       </c>
       <c r="F44" t="n">
-        <v>83.86859682539686</v>
+        <v>83.90799999999997</v>
       </c>
       <c r="G44" t="n">
-        <v>65.75230713101151</v>
+        <v>65.95574129353227</v>
       </c>
       <c r="H44" t="n">
-        <v>50.77226666666664</v>
+        <v>50.74000000000004</v>
       </c>
       <c r="I44" t="n">
-        <v>78.32530687830689</v>
+        <v>78.38000000000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>78.60401842036637</v>
+        <v>79.67729353233817</v>
       </c>
       <c r="B45" t="n">
-        <v>67.24252337474053</v>
+        <v>69.70000000000003</v>
       </c>
       <c r="C45" t="n">
-        <v>87.85432539355634</v>
+        <v>88.30799999999994</v>
       </c>
       <c r="D45" t="n">
-        <v>78.43514759535645</v>
+        <v>78.53198009950236</v>
       </c>
       <c r="E45" t="n">
-        <v>67.6814344615882</v>
+        <v>68.52400000000004</v>
       </c>
       <c r="F45" t="n">
-        <v>86.47359010669238</v>
+        <v>86.73200000000006</v>
       </c>
       <c r="G45" t="n">
-        <v>74.87814154228853</v>
+        <v>75.03510447761192</v>
       </c>
       <c r="H45" t="n">
-        <v>62.44863492063495</v>
+        <v>62.71599999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>84.68557930718522</v>
+        <v>85.76799999999994</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>76.9050639177881</v>
+        <v>76.83709452736301</v>
       </c>
       <c r="B46" t="n">
-        <v>64.7027436872627</v>
+        <v>65.02800000000003</v>
       </c>
       <c r="C46" t="n">
-        <v>86.85663640872512</v>
+        <v>87.69199999999994</v>
       </c>
       <c r="D46" t="n">
-        <v>82.70979362710246</v>
+        <v>82.72943283582076</v>
       </c>
       <c r="E46" t="n">
-        <v>72.81621883427762</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>90.41824577677228</v>
+        <v>90.42000000000003</v>
       </c>
       <c r="G46" t="n">
-        <v>74.53164982231681</v>
+        <v>74.56786069651724</v>
       </c>
       <c r="H46" t="n">
-        <v>60.73937958152958</v>
+        <v>60.37200000000004</v>
       </c>
       <c r="I46" t="n">
-        <v>85.24795631405625</v>
+        <v>85.76000000000003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>69.43170597268946</v>
+        <v>69.34527363184068</v>
       </c>
       <c r="B47" t="n">
-        <v>53.55679453044066</v>
+        <v>54.13200000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>82.27514799310728</v>
+        <v>82.12400000000005</v>
       </c>
       <c r="D47" t="n">
-        <v>89.21493251885509</v>
+        <v>89.11188059701486</v>
       </c>
       <c r="E47" t="n">
-        <v>79.68333250847859</v>
+        <v>79.396</v>
       </c>
       <c r="F47" t="n">
-        <v>94.73924051208078</v>
+        <v>94.77200000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>80.56098126784282</v>
+        <v>80.10208955223874</v>
       </c>
       <c r="H47" t="n">
-        <v>64.67532788243714</v>
+        <v>64.31600000000002</v>
       </c>
       <c r="I47" t="n">
-        <v>90.30125490119484</v>
+        <v>90.00399999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>73.91887104283211</v>
+        <v>74.05402985074608</v>
       </c>
       <c r="B48" t="n">
-        <v>59.67810437710438</v>
+        <v>60.74800000000004</v>
       </c>
       <c r="C48" t="n">
-        <v>84.20375015247338</v>
+        <v>83.84399999999998</v>
       </c>
       <c r="D48" t="n">
-        <v>51.6825373134327</v>
+        <v>51.43675621890533</v>
       </c>
       <c r="E48" t="n">
-        <v>36.8236529100529</v>
+        <v>37.18399999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>65.3079751322751</v>
+        <v>64.60800000000003</v>
       </c>
       <c r="G48" t="n">
-        <v>55.07304809286887</v>
+        <v>54.74634825870639</v>
       </c>
       <c r="H48" t="n">
-        <v>40.99811190476188</v>
+        <v>41.31199999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>68.55944444444441</v>
+        <v>68.55199999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>41.98800663349913</v>
+        <v>42.40694527363179</v>
       </c>
       <c r="B49" t="n">
-        <v>27.1639476190476</v>
+        <v>27.28400000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>58.56133333333341</v>
+        <v>58.73600000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>7.065971484568497</v>
+        <v>7.170447761194031</v>
       </c>
       <c r="E49" t="n">
-        <v>3.106814879537728</v>
+        <v>3.036000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>12.40676190476191</v>
+        <v>12.42399999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>14.29780952380951</v>
+        <v>14.49391044776118</v>
       </c>
       <c r="H49" t="n">
-        <v>8.463835714285718</v>
+        <v>8.648000000000005</v>
       </c>
       <c r="I49" t="n">
-        <v>21.77915661375663</v>
+        <v>21.98399999999998</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>51.92093532338293</v>
+        <v>51.72829850746253</v>
       </c>
       <c r="B50" t="n">
-        <v>34.6127809116809</v>
+        <v>35.44800000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>66.78636084656092</v>
+        <v>66.69599999999997</v>
       </c>
       <c r="D50" t="n">
-        <v>10.47267429519071</v>
+        <v>10.45580099502488</v>
       </c>
       <c r="E50" t="n">
-        <v>4.710335201212041</v>
+        <v>4.888000000000002</v>
       </c>
       <c r="F50" t="n">
-        <v>17.40546984126982</v>
+        <v>17.524</v>
       </c>
       <c r="G50" t="n">
-        <v>22.92080597014915</v>
+        <v>22.99598009950236</v>
       </c>
       <c r="H50" t="n">
-        <v>14.12566666666668</v>
+        <v>14.248</v>
       </c>
       <c r="I50" t="n">
-        <v>31.67246666666668</v>
+        <v>32.19599999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26.11016915422882</v>
+        <v>26.08632835820892</v>
       </c>
       <c r="B51" t="n">
-        <v>16.06946349206349</v>
+        <v>14.976</v>
       </c>
       <c r="C51" t="n">
-        <v>39.57997777777781</v>
+        <v>39.64799999999998</v>
       </c>
       <c r="D51" t="n">
-        <v>1.342036815920398</v>
+        <v>1.318009950248756</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3544087644662162</v>
+        <v>0.208</v>
       </c>
       <c r="F51" t="n">
-        <v>2.896120875420877</v>
+        <v>2.887999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>6.647184908789377</v>
+        <v>6.658487562189048</v>
       </c>
       <c r="H51" t="n">
-        <v>3.20952380952381</v>
+        <v>3.216000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>10.92968888888887</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>76.8983623379679</v>
+        <v>76.03504477611921</v>
       </c>
       <c r="B52" t="n">
-        <v>63.64876770152392</v>
+        <v>62.41200000000003</v>
       </c>
       <c r="C52" t="n">
-        <v>86.56135706617009</v>
+        <v>86.10400000000003</v>
       </c>
       <c r="D52" t="n">
-        <v>81.71919933665005</v>
+        <v>81.70913432835819</v>
       </c>
       <c r="E52" t="n">
-        <v>72.48261412101701</v>
+        <v>72.53600000000006</v>
       </c>
       <c r="F52" t="n">
-        <v>88.71309206349193</v>
+        <v>88.68000000000005</v>
       </c>
       <c r="G52" t="n">
-        <v>72.77228476664285</v>
+        <v>72.71532338308442</v>
       </c>
       <c r="H52" t="n">
-        <v>58.2027333333333</v>
+        <v>58.16399999999997</v>
       </c>
       <c r="I52" t="n">
-        <v>84.5660784363784</v>
+        <v>84.56800000000004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>75.13964254915894</v>
+        <v>75.15136318407959</v>
       </c>
       <c r="B53" t="n">
-        <v>61.37971159211158</v>
+        <v>62.37600000000002</v>
       </c>
       <c r="C53" t="n">
-        <v>85.7855902615904</v>
+        <v>86.01199999999996</v>
       </c>
       <c r="D53" t="n">
-        <v>52.61468656716414</v>
+        <v>52.71584079601985</v>
       </c>
       <c r="E53" t="n">
-        <v>36.86078624338622</v>
+        <v>36.84400000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>66.04902380952375</v>
+        <v>65.988</v>
       </c>
       <c r="G53" t="n">
-        <v>56.35514759535642</v>
+        <v>56.81512437810937</v>
       </c>
       <c r="H53" t="n">
-        <v>41.87359999999996</v>
+        <v>42.11600000000002</v>
       </c>
       <c r="I53" t="n">
-        <v>70.0063333333332</v>
+        <v>70.34800000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>33.85053731343272</v>
+        <v>33.85383084577103</v>
       </c>
       <c r="B54" t="n">
-        <v>20.96254155844157</v>
+        <v>20.34799999999998</v>
       </c>
       <c r="C54" t="n">
-        <v>50.56762857142849</v>
+        <v>50.21600000000002</v>
       </c>
       <c r="D54" t="n">
-        <v>2.198749831649825</v>
+        <v>2.181174129353223</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.7240000000000005</v>
       </c>
       <c r="F54" t="n">
-        <v>4.221802645502644</v>
+        <v>4.223999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>11.64901094527363</v>
+        <v>11.6070447761194</v>
       </c>
       <c r="H54" t="n">
-        <v>6.778469047619043</v>
+        <v>6.456000000000002</v>
       </c>
       <c r="I54" t="n">
-        <v>18.99939841269842</v>
+        <v>18.892</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>48.72943283582085</v>
+        <v>48.76499502487555</v>
       </c>
       <c r="B55" t="n">
-        <v>31.30424935064937</v>
+        <v>31.06799999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>65.18328042328039</v>
+        <v>65.28399999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>9.361863539445618</v>
+        <v>9.379800995024869</v>
       </c>
       <c r="E55" t="n">
-        <v>4.611000083629244</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="F55" t="n">
-        <v>15.83567287157287</v>
+        <v>15.828</v>
       </c>
       <c r="G55" t="n">
-        <v>20.25496650082904</v>
+        <v>20.22557213930335</v>
       </c>
       <c r="H55" t="n">
-        <v>12.2804406926407</v>
+        <v>12.00800000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>30.23827142857141</v>
+        <v>30.10799999999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>77.02239067542966</v>
+        <v>77.0624278606964</v>
       </c>
       <c r="B56" t="n">
-        <v>65.18335148635896</v>
+        <v>65.13200000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>86.93544441423433</v>
+        <v>87.34399999999997</v>
       </c>
       <c r="D56" t="n">
-        <v>83.00827940456442</v>
+        <v>83.12567164179096</v>
       </c>
       <c r="E56" t="n">
-        <v>74.17323096611371</v>
+        <v>73.65200000000003</v>
       </c>
       <c r="F56" t="n">
-        <v>90.1623983175695</v>
+        <v>90.12799999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>76.02800152807379</v>
+        <v>76.22499502487545</v>
       </c>
       <c r="H56" t="n">
-        <v>63.20045573660553</v>
+        <v>62.86399999999998</v>
       </c>
       <c r="I56" t="n">
-        <v>86.1713005328006</v>
+        <v>86.53599999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>73.65960550563909</v>
+        <v>73.43599999999985</v>
       </c>
       <c r="B57" t="n">
-        <v>60.18237127113348</v>
+        <v>60.36399999999996</v>
       </c>
       <c r="C57" t="n">
-        <v>85.28213784261726</v>
+        <v>85.08400000000002</v>
       </c>
       <c r="D57" t="n">
-        <v>86.41603659971861</v>
+        <v>86.41371144278597</v>
       </c>
       <c r="E57" t="n">
-        <v>77.39816443093595</v>
+        <v>77.08800000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>92.70530908674749</v>
+        <v>92.54399999999994</v>
       </c>
       <c r="G57" t="n">
-        <v>77.61397069051233</v>
+        <v>77.54218905472629</v>
       </c>
       <c r="H57" t="n">
-        <v>63.06424391852144</v>
+        <v>62.968</v>
       </c>
       <c r="I57" t="n">
-        <v>88.04094118287782</v>
+        <v>87.68000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>51.78682587064666</v>
+        <v>51.80455721393026</v>
       </c>
       <c r="B58" t="n">
-        <v>32.80915234025235</v>
+        <v>33.136</v>
       </c>
       <c r="C58" t="n">
-        <v>67.22125238095234</v>
+        <v>67.44800000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>10.54100762852404</v>
+        <v>10.49096517412935</v>
       </c>
       <c r="E58" t="n">
-        <v>4.675165889042728</v>
+        <v>4.660000000000004</v>
       </c>
       <c r="F58" t="n">
-        <v>17.72224761904763</v>
+        <v>17.728</v>
       </c>
       <c r="G58" t="n">
-        <v>22.90949552238798</v>
+        <v>22.90459701492526</v>
       </c>
       <c r="H58" t="n">
-        <v>13.27817142857144</v>
+        <v>13.376</v>
       </c>
       <c r="I58" t="n">
-        <v>33.32660476190476</v>
+        <v>33.45999999999998</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>77.02239067542966</v>
+        <v>78.04226865671637</v>
       </c>
       <c r="B59" t="n">
-        <v>65.13683772963614</v>
+        <v>66.45999999999998</v>
       </c>
       <c r="C59" t="n">
-        <v>86.81280402599695</v>
+        <v>87.248</v>
       </c>
       <c r="D59" t="n">
-        <v>76.46578839137625</v>
+        <v>76.58423880596996</v>
       </c>
       <c r="E59" t="n">
-        <v>64.64484275293566</v>
+        <v>64.10799999999996</v>
       </c>
       <c r="F59" t="n">
-        <v>85.7236174508745</v>
+        <v>85.98399999999992</v>
       </c>
       <c r="G59" t="n">
-        <v>70.36107186685609</v>
+        <v>70.60226865671635</v>
       </c>
       <c r="H59" t="n">
-        <v>56.94813225108225</v>
+        <v>56.45599999999997</v>
       </c>
       <c r="I59" t="n">
-        <v>81.49074107004105</v>
+        <v>81.28799999999997</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>36.90262686567146</v>
+        <v>37.08159203980085</v>
       </c>
       <c r="B60" t="n">
-        <v>23.16199999999998</v>
+        <v>23.33200000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>52.53866666666664</v>
+        <v>53.22400000000002</v>
       </c>
       <c r="D60" t="n">
-        <v>2.450557490326137</v>
+        <v>2.53152238805969</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.8119999999999998</v>
       </c>
       <c r="F60" t="n">
-        <v>5.010111111111105</v>
+        <v>5.036000000000004</v>
       </c>
       <c r="G60" t="n">
-        <v>13.21994941956881</v>
+        <v>13.63379104477612</v>
       </c>
       <c r="H60" t="n">
-        <v>7.507199999999998</v>
+        <v>7.576000000000001</v>
       </c>
       <c r="I60" t="n">
-        <v>20.10022222222223</v>
+        <v>20.82399999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>77.93561593795123</v>
+        <v>77.39812935323368</v>
       </c>
       <c r="B61" t="n">
-        <v>65.75657195823732</v>
+        <v>65.15599999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>87.62247899504736</v>
+        <v>87.71999999999998</v>
       </c>
       <c r="D61" t="n">
-        <v>83.60664196295676</v>
+        <v>83.66732338308448</v>
       </c>
       <c r="E61" t="n">
-        <v>74.12710128373325</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>90.2490382114905</v>
+        <v>90.34400000000004</v>
       </c>
       <c r="G61" t="n">
-        <v>77.35636034566015</v>
+        <v>77.46799999999989</v>
       </c>
       <c r="H61" t="n">
-        <v>63.98965974688385</v>
+        <v>63.97599999999998</v>
       </c>
       <c r="I61" t="n">
-        <v>87.54905058645058</v>
+        <v>87.56799999999996</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>78.25616577141631</v>
+        <v>78.85174129353223</v>
       </c>
       <c r="B62" t="n">
-        <v>66.11972164703593</v>
+        <v>67.15999999999997</v>
       </c>
       <c r="C62" t="n">
-        <v>87.3063105470367</v>
+        <v>87.32799999999993</v>
       </c>
       <c r="D62" t="n">
-        <v>77.50220499881537</v>
+        <v>77.48320398009946</v>
       </c>
       <c r="E62" t="n">
-        <v>65.99813388138634</v>
+        <v>66.15199999999997</v>
       </c>
       <c r="F62" t="n">
-        <v>86.22048721959894</v>
+        <v>86.53599999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>72.23684593698169</v>
+        <v>72.24622885572131</v>
       </c>
       <c r="H62" t="n">
-        <v>58.06820952380954</v>
+        <v>57.91600000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>83.06132609427613</v>
+        <v>82.80399999999996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>78.08324395670809</v>
+        <v>78.35092537313422</v>
       </c>
       <c r="B63" t="n">
-        <v>68.20743929264675</v>
+        <v>67.78399999999996</v>
       </c>
       <c r="C63" t="n">
-        <v>87.61365860049004</v>
+        <v>87.8</v>
       </c>
       <c r="D63" t="n">
-        <v>84.04345676379998</v>
+        <v>84.02622885572134</v>
       </c>
       <c r="E63" t="n">
-        <v>74.18915574903404</v>
+        <v>74.08800000000006</v>
       </c>
       <c r="F63" t="n">
-        <v>90.84742590442458</v>
+        <v>90.76799999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>78.3921072804426</v>
+        <v>78.398567164179</v>
       </c>
       <c r="H63" t="n">
-        <v>64.85533104198669</v>
+        <v>64.512</v>
       </c>
       <c r="I63" t="n">
-        <v>88.0538782587783</v>
+        <v>88.336</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>37.17146268656701</v>
+        <v>37.46991044776108</v>
       </c>
       <c r="B64" t="n">
-        <v>23.69133333333334</v>
+        <v>24.16400000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>52.68799999999996</v>
+        <v>53.536</v>
       </c>
       <c r="D64" t="n">
-        <v>2.469860972913202</v>
+        <v>2.567223880597004</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>4.863777777777775</v>
+        <v>4.932000000000003</v>
       </c>
       <c r="G64" t="n">
-        <v>13.32055837479269</v>
+        <v>13.82212935323382</v>
       </c>
       <c r="H64" t="n">
-        <v>7.763200000000007</v>
+        <v>7.888000000000004</v>
       </c>
       <c r="I64" t="n">
-        <v>20.12388888888889</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.6723439271678</v>
+        <v>73.49357213930341</v>
       </c>
       <c r="B65" t="n">
-        <v>59.58250065428425</v>
+        <v>59.696</v>
       </c>
       <c r="C65" t="n">
-        <v>85.29195094693338</v>
+        <v>85.02399999999997</v>
       </c>
       <c r="D65" t="n">
-        <v>86.16375556345251</v>
+        <v>86.04499502487553</v>
       </c>
       <c r="E65" t="n">
-        <v>77.08734665733517</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>92.19279959646593</v>
+        <v>92.25599999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>76.24390981958886</v>
+        <v>76.12139303482589</v>
       </c>
       <c r="H65" t="n">
-        <v>60.74349632034633</v>
+        <v>60.19200000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>87.23535839493843</v>
+        <v>87.09999999999997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>78.51266518765993</v>
+        <v>78.17590049751244</v>
       </c>
       <c r="B66" t="n">
-        <v>65.96384118327411</v>
+        <v>66.73200000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>87.66079572502015</v>
+        <v>86.98799999999997</v>
       </c>
       <c r="D66" t="n">
-        <v>68.15277085998565</v>
+        <v>67.92863681592026</v>
       </c>
       <c r="E66" t="n">
-        <v>55.687777608124</v>
+        <v>55.69600000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>78.82749679427332</v>
+        <v>78.58800000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>67.07158305693744</v>
+        <v>66.612199004975</v>
       </c>
       <c r="H66" t="n">
-        <v>52.65859999999998</v>
+        <v>52.536</v>
       </c>
       <c r="I66" t="n">
-        <v>78.41255154475161</v>
+        <v>78.44800000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>78.42465448192017</v>
+        <v>78.06981094527356</v>
       </c>
       <c r="B67" t="n">
-        <v>66.17953990180344</v>
+        <v>66.21599999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>87.80725255328893</v>
+        <v>88.21200000000003</v>
       </c>
       <c r="D67" t="n">
-        <v>67.47128727789614</v>
+        <v>67.54624875621882</v>
       </c>
       <c r="E67" t="n">
-        <v>54.94819835099766</v>
+        <v>55.08800000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>78.59362926332925</v>
+        <v>78.55200000000005</v>
       </c>
       <c r="G67" t="n">
-        <v>65.47501736519411</v>
+        <v>65.7512437810944</v>
       </c>
       <c r="H67" t="n">
-        <v>52.31498888888891</v>
+        <v>52.172</v>
       </c>
       <c r="I67" t="n">
-        <v>77.6798834646835</v>
+        <v>77.35599999999994</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>47.82893034825858</v>
+        <v>47.93393034825859</v>
       </c>
       <c r="B68" t="n">
-        <v>31.3582745032745</v>
+        <v>30.71200000000002</v>
       </c>
       <c r="C68" t="n">
-        <v>64.86247989417987</v>
+        <v>65.268</v>
       </c>
       <c r="D68" t="n">
-        <v>8.940256432125079</v>
+        <v>9.004955223880586</v>
       </c>
       <c r="E68" t="n">
-        <v>3.43632156405949</v>
+        <v>3.995999999999998</v>
       </c>
       <c r="F68" t="n">
-        <v>15.38892525252524</v>
+        <v>15.35600000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>18.82491094527361</v>
+        <v>19.018447761194</v>
       </c>
       <c r="H68" t="n">
-        <v>10.29962375402376</v>
+        <v>10.604</v>
       </c>
       <c r="I68" t="n">
-        <v>28.79611746031747</v>
+        <v>28.95199999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>69.60152714037385</v>
+        <v>69.65066666666662</v>
       </c>
       <c r="B69" t="n">
-        <v>54.15387142652937</v>
+        <v>54.396</v>
       </c>
       <c r="C69" t="n">
-        <v>82.72681605659979</v>
+        <v>83.17200000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>89.24961257209821</v>
+        <v>89.32368159203976</v>
       </c>
       <c r="E69" t="n">
-        <v>79.71745793987962</v>
+        <v>80.13600000000002</v>
       </c>
       <c r="F69" t="n">
-        <v>94.67591042029434</v>
+        <v>94.51600000000002</v>
       </c>
       <c r="G69" t="n">
-        <v>80.61715197527251</v>
+        <v>80.58268656716406</v>
       </c>
       <c r="H69" t="n">
-        <v>64.40842792553838</v>
+        <v>64.91199999999996</v>
       </c>
       <c r="I69" t="n">
-        <v>90.44528744196563</v>
+        <v>90.53600000000006</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>44.57341293532328</v>
+        <v>44.35022885572128</v>
       </c>
       <c r="B70" t="n">
-        <v>28.8289685388685</v>
+        <v>29.57200000000002</v>
       </c>
       <c r="C70" t="n">
-        <v>62.30773333333332</v>
+        <v>61.62400000000002</v>
       </c>
       <c r="D70" t="n">
-        <v>7.735089220563842</v>
+        <v>7.685631840796012</v>
       </c>
       <c r="E70" t="n">
-        <v>3.248169725140469</v>
+        <v>3.503999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>13.86457777777779</v>
+        <v>13.79599999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>16.34222752902157</v>
+        <v>16.31237810945274</v>
       </c>
       <c r="H70" t="n">
-        <v>10.21180607725607</v>
+        <v>10.28</v>
       </c>
       <c r="I70" t="n">
-        <v>24.62394444444446</v>
+        <v>24.772</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>65.33340469083146</v>
+        <v>65.16945273631831</v>
       </c>
       <c r="B71" t="n">
-        <v>47.84058268398262</v>
+        <v>47.772</v>
       </c>
       <c r="C71" t="n">
-        <v>78.92106703296714</v>
+        <v>78.43999999999997</v>
       </c>
       <c r="D71" t="n">
-        <v>40.72319568822542</v>
+        <v>40.67438805970137</v>
       </c>
       <c r="E71" t="n">
-        <v>27.03367883597883</v>
+        <v>26.71599999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>55.67193333333321</v>
+        <v>55.60800000000005</v>
       </c>
       <c r="G71" t="n">
-        <v>38.75230563847411</v>
+        <v>38.81118407960184</v>
       </c>
       <c r="H71" t="n">
-        <v>25.52543333333332</v>
+        <v>25.66000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>52.78320000000004</v>
+        <v>52.74000000000002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70.09862009002592</v>
+        <v>70.25102487562181</v>
       </c>
       <c r="B72" t="n">
-        <v>56.15481619121626</v>
+        <v>55.85599999999995</v>
       </c>
       <c r="C72" t="n">
-        <v>82.61485608095602</v>
+        <v>82.49600000000004</v>
       </c>
       <c r="D72" t="n">
-        <v>46.39390149253714</v>
+        <v>46.4125771144277</v>
       </c>
       <c r="E72" t="n">
-        <v>32.62037407407408</v>
+        <v>32.78000000000002</v>
       </c>
       <c r="F72" t="n">
-        <v>61.60208510378515</v>
+        <v>61.67599999999995</v>
       </c>
       <c r="G72" t="n">
-        <v>46.9426708126035</v>
+        <v>47.03172139303476</v>
       </c>
       <c r="H72" t="n">
-        <v>32.27639047619048</v>
+        <v>32.33999999999997</v>
       </c>
       <c r="I72" t="n">
-        <v>60.83547777777777</v>
+        <v>60.71199999999998</v>
       </c>
     </row>
   </sheetData>
